--- a/biology/Botanique/Mibora/Mibora.xlsx
+++ b/biology/Botanique/Mibora/Mibora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mibora est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Europe et d'Afrique du Nord.
 Ce sont des plantes herbacées annuelles, cespiteuses, de petite taille (de 2 à 15 cm de haut), aux inflorescences en racèmes ou épis lâches de couleur violacée
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mibora est un genre de graminées de très petite taille, poussant en touffes, aux tiges (ou chaumes) dressées ou parfois rapidement ascendantes,  de 2 à 15 cm de long.
 Comme chez toutes les graminées, les feuilles se composent à sa base d'une gaine enveloppant étroitement le chaume, d'un limbe foliaire libre dans sa partie supérieure et d'une ligule au point de jonction de la gaine et du limbe.
-Les gaines sont tendres, légèrement rainurées, arrondies à leur dos, de 0,2à 1 mm de long. La ligule est membraneuse. Le limbe est plat, plié longitudinalement, ou enroulé, et de 1 à 6 cm de long sur 0,5 à 0,7 mm de large. Les épillets ne comptent qu'un seul fleuron fertile, à 3 anthères[2].
+Les gaines sont tendres, légèrement rainurées, arrondies à leur dos, de 0,2à 1 mm de long. La ligule est membraneuse. Le limbe est plat, plié longitudinalement, ou enroulé, et de 1 à 6 cm de long sur 0,5 à 0,7 mm de large. Les épillets ne comptent qu'un seul fleuron fertile, à 3 anthères.
 </t>
         </is>
       </c>
@@ -547,17 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (15 novembre 2016)[3] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 novembre 2016) :
 Mibora maroccana (Maire) Maire (1941)
 Mibora minima (L.) Desv. (1827)
-Selon Tropicos                                           (15 novembre 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 novembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 Mibora desvauxii Lange
 Mibora maroccana (Maire) Maire
 Mibora minima (L.) Desv.
-Mibora verna P. Beauv.
-Synonymes
-Selon GRIN[4]
+Mibora verna P. Beauv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mibora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mibora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GRIN
 Chamagrostis Borkh.
 Knappia Sm.
 Micagrostis Juss., nom. inval.
